--- a/Underworld/data/campaign/rules.xlsx
+++ b/Underworld/data/campaign/rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="580">
   <si>
     <t>id</t>
   </si>
@@ -183,9 +183,6 @@
     <t>CabalContributionTithe</t>
   </si>
   <si>
-    <t>A triangular symbol appears on the comms-line. "We can see that you are an individual of wealth, $playerName. Perhaps you can be convinced to continue on the Starlight Path for a modest contribution of $Cabal_tithe_string credits."</t>
-  </si>
-  <si>
     <t>CabalTithePay</t>
   </si>
   <si>
@@ -277,20 +274,12 @@
     <t>$Cabal_weapon_amount == 1</t>
   </si>
   <si>
-    <t>"That is a shiny gun, $playerName. I hope you can be convinced to start on the Starlight Path by donating your $Cabal_weapon_name to the cause."
-The Cabal $personRank in a brightly-colored leotard paces impatiently. "If not, then I'll take it by force. It's up to you, really."</t>
-  </si>
-  <si>
     <t>CabalExtortionWeaponSingular</t>
   </si>
   <si>
     <t>$Cabal_weapon_amount &gt; 1</t>
   </si>
   <si>
-    <t>"Those are some shiny guns, $playerName. I hope you can be convinced to start on the Starlight Path by donating your $Cabal_weapon_amount_string $Cabal_weapon_names to the cause."
-Behind a mahogany desk, the Cabal $personRank appears to be completely nude except for a large gold chain around the neck. "If not, then I'll take them by force. It's up to you, really."</t>
-  </si>
-  <si>
     <t>CabalContributionWeapon</t>
   </si>
   <si>
@@ -303,13 +292,7 @@
     <t>CabalContributionWeaponTirades</t>
   </si>
   <si>
-    <t>A triangular symbol appears on the comms-line. "Now that is a fine weapon, $playerName. Hopefully, you can be convinced to continue on the Starlight Path by donating that $Cabal_weapon_name to a greater cause."</t>
-  </si>
-  <si>
     <t>CabalContributionWeaponPlural</t>
-  </si>
-  <si>
-    <t>A triangular symbol appears on the comms-line. "Now those are some fine weapons, $playerName. Hopefully, you can be convinced to continue on the Starlight Path by donating $Cabal_weapon_amount_string $Cabal_weapon_names to a greater cause."</t>
   </si>
   <si>
     <t>CabalWeaponPaySingular</t>
@@ -342,20 +325,12 @@
     <t>$Cabal_fighter_amount == 1</t>
   </si>
   <si>
-    <t>"Wowie, $playerName! What a rare LPC! I hope you will start on the Starlight Path by donating your $Cabal_fighter_name to a greater cause."
-The Cabal $personRank chuckles to themself, reclining on a posh sofa installed in their bridge. "Hurry up, won't you? I'm growing impatient."</t>
-  </si>
-  <si>
     <t>CabalExtortionFighterSingular</t>
   </si>
   <si>
     <t>$Cabal_fighter_amount &gt; 1</t>
   </si>
   <si>
-    <t>"Amazing, $playerName! What a wonderful LPC collection! You had better start on the Starlight Path by donating your $Cabal_fighter_amount_string $Cabal_fighter_names to a greater cause."
-The Cabal $personRank reclines on a posh sofa installed in their bridge, inspecting a handful of credit chits. "Hurry up, darling! I grow impatient."</t>
-  </si>
-  <si>
     <t>CabalContributionFighter</t>
   </si>
   <si>
@@ -368,13 +343,7 @@
     <t>CabalContributionFighterTirades</t>
   </si>
   <si>
-    <t>A triangular symbol appears on the comms-line. "I see you are in possession of a rare LPC, $playerName. I am sure you will continue on the Starlight Path by donating that $Cabal_fighter_name to a greater cause."</t>
-  </si>
-  <si>
     <t>CabalContributionFighterPlural</t>
-  </si>
-  <si>
-    <t>A triangular symbol appears on the comms-line. "My scans show that you have quite the collection of LPCs, $playerName. I am certain you will continue on the Starlight Path by donating $Cabal_fighter_amount_string $Cabal_fighter_names to a greater cause."</t>
   </si>
   <si>
     <t>CabalFighterPaySingular</t>
@@ -395,9 +364,6 @@
   </si>
   <si>
     <t>CabalContributionShip</t>
-  </si>
-  <si>
-    <t>A triangular symbol appears on the comms-line. "That is an excellent fleet in your employ, $playerName. I hope you will continue on the Starlight Path by graciously donating the $Cabal_ship_name to a greater cause."</t>
   </si>
   <si>
     <t>CabalShipPay</t>
@@ -412,9 +378,6 @@
     <t>MakeOtherFleetPreventDisengage cabalExtortion true
 MakeOtherFleetAggressive cabalExtortion true
 $entity.ignorePlayerCommRequests = true 1</t>
-  </si>
-  <si>
-    <t>"What a loser! Your coffers are so empty that it's not even worth asking you for a contribution. Prepare to burn, lowlife scum!" The Cabal $personRank regards you as though you are a pile of excrement.</t>
   </si>
   <si>
     <t>CabalExtortionNoneHostile</t>
@@ -426,15 +389,7 @@
 $entity.ignorePlayerCommRequests = true 0</t>
   </si>
   <si>
-    <t>A triangular symbol appears on the comms-line. "Attention, captain: your assets are worth a paltry $Cabal_netWorthString! Poverty is a sin, as you should be well aware. You must obtain more wealth before you are worthy to start on the Starlight Path."
-OR
-A laughing $personFaction $personRank appears on screen long enough to laugh at you piteously. "I'll let you go, little pauper! Wouldn't want to cut into profits by wasting time swatting every little fly in my path, would I?" You are given a mocking wave good-bye before the comms-line cuts out.</t>
-  </si>
-  <si>
     <t>CabalExtortionNoneFriendly</t>
-  </si>
-  <si>
-    <t>A triangular symbol appears on the comms-line. "You're quite... unwealthy, aren't you? Your assets are only worth $Cabal_netWorthString! You should amass some more wealth, $playerName. As you know, it's a sin to be poor."</t>
   </si>
   <si>
     <t>CabalCommFallback</t>
@@ -970,38 +925,10 @@
     <t>15:marketRepair:Repair your ships at the dockyard</t>
   </si>
   <si>
-    <t>"You're ferrying around quite a lot of cargo, $playerName. Maybe you can be convinced to start on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name."
-"If not, then we've got a problem. Your choice." The $personRank gives you an exaggerated wink.
-OR
-"Oh boy, $playerName, you've got an awful lot of cargo. I think you can start on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name to the cause."
-"Not that you've got much of a choice in the matter," the Cabal $personRank says while shrugging.
-OR
-"That's some valuable cargo in your holds, $playerName. Why not start on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name?"
-Golden teeth poke out as the $personRank smiles cockily. "It will be a lot easier on the both of us if you do."</t>
-  </si>
-  <si>
-    <t>A triangular symbol appears on the comms-line. "You've got some valuable cargo, $playerName. Maybe you can be convinced to continue on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name."</t>
-  </si>
-  <si>
     <t>$faction.id == cabal score:100
 !$isHostile
 !$Cabal_toffmad
 !$player.transponderOn score:100
-!$ignorePlayerCommRequests</t>
-  </si>
-  <si>
-    <t>$faction.id == cabal score:100
-RepIsAtBest $faction.id HOSTILE
-!$Cabal_extortionPaid
-!$Cabal_extortionAskedFor
-$relativeStrength &gt;= 0
-!$ignorePlayerCommRequests</t>
-  </si>
-  <si>
-    <t>$faction.id == cabal score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$Cabal_extortionPaid
-!$Cabal_extortionAskedFor
 !$ignorePlayerCommRequests</t>
   </si>
   <si>
@@ -2257,81 +2184,6 @@
 !$entity.Cabal_extortionPaid
 !$Cabal_extortionAskedFor
 $option == turnOnTransponder</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == tithe score:100
-RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid
-CabalTitheCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == tithe score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalTitheCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == cargo score:100
-RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid
-CabalCargoCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == cargo score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalCargoCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == weapon score:100
-RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid
-CabalWeaponCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == weapon score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalWeaponCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == fighter score:100
-RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid
-CabalFighterCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == fighter score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalFighterCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == ship score:100
-RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid
-CabalShipCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == ship score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalShipCalc</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == none score:100
-RepIsAtBest $faction.id VENGEFUL score:100
-!$entity.Cabal_extortionPaid</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == none score:100
-RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == none score:100
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid</t>
   </si>
   <si>
     <t>$entity.Cabal_extortionPaid = true 30
@@ -2377,26 +2229,6 @@
   </si>
   <si>
     <t>Against all odds, the Starlight Cabal sees you as an authority figure. Your words hold great weight within the shadowsphere.</t>
-  </si>
-  <si>
-    <t>"I can see that you are an individual of wealth, $playerName. Perhaps you can be convinced to start on the Starlight Path for a modest contribution of $Cabal_tithe_string credits."
-The $personRank in the bright suit folds $hisOrHer arms. "Or, we could do this the hard way. It's your call."
-OR
-"You are quite wealthy, $playerName. An individual of your stature can surely start on the Starlight Path for a contribution of $Cabal_tithe_string credits."
-The Cabalero points at you through the comms-link. "Just remember, you reap what you sow."
-OR
-"$playerName, your coffers are large enough for an introduction to the Starlight Path. With a contribution of $Cabal_tithe_string credits, you can come one step closer to enlightenment."
-The comm abruptly cuts to stark black. "Otherwise, I think you're going to have a bad time."</t>
-  </si>
-  <si>
-    <t>"You have an excellent taste in ships, $playerName. I think you can start on the Starlight Path by graciously donating the $Cabal_ship_name to the cause."
-The Cabalero looks at you through a pair of blinders. "It would be a shame if it got damaged. But that's your choice, not mine."
-OR
-"$playerName, that ship of yours is positively delicious! I think you can start on the Starlight Path by giving the $Cabal_ship_name to a greater cause."
-The $personRank spins around on an office chair. "Or we could just take it, you know. It's up to you."
-OR
-"Phew, what a beauty that ship is! $playerName, you have a great opportunity to start on the Starlight Path - by sharing the $Cabal_ship_name with the Cabal."
-"Sharing is caring, $playerName. If you're not in the caring mood, you will just have to be punished." The Cabal $personRank waggles a ring-adorned finger at you, disapprovingly.</t>
   </si>
   <si>
     <t>CabalAvoidExtortion</t>
@@ -2616,6 +2448,227 @@
   <si>
     <t>SetTextHighlights $Cabal_ship_name
 SetStoryOption avoidCabalContribution 1 uw_avoidCabalContribution leadership "Impressed a Cabalero"</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == tithe score:100
+$faction.id == cabal
+RepIsAtBest $faction.id HOSTILE
+!$entity.Cabal_extortionPaid
+CabalTitheCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == tithe score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+!$entity.Cabal_extortionPaid
+CabalTitheCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == cargo score:100
+$faction.id == cabal
+RepIsAtBest $faction.id HOSTILE
+!$entity.Cabal_extortionPaid
+CabalCargoCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == cargo score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+!$entity.Cabal_extortionPaid
+CabalCargoCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == weapon score:100
+$faction.id == cabal
+RepIsAtBest $faction.id HOSTILE
+!$entity.Cabal_extortionPaid
+CabalWeaponCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == weapon score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+!$entity.Cabal_extortionPaid
+CabalWeaponCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == fighter score:100
+$faction.id == cabal
+RepIsAtBest $faction.id HOSTILE
+!$entity.Cabal_extortionPaid
+CabalFighterCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == fighter score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+!$entity.Cabal_extortionPaid
+CabalFighterCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == ship score:100
+$faction.id == cabal
+RepIsAtBest $faction.id HOSTILE
+!$entity.Cabal_extortionPaid
+CabalShipCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == ship score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+!$entity.Cabal_extortionPaid
+CabalShipCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == none score:100
+$faction.id == cabal
+RepIsAtBest $faction.id VENGEFUL score:100
+!$entity.Cabal_extortionPaid</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == none score:100
+$faction.id == cabal
+RepIsAtBest $faction.id HOSTILE
+!$entity.Cabal_extortionPaid</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == none score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+!$entity.Cabal_extortionPaid</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"I can see that you are an individual of wealth, $playerName. Perhaps you can be convinced to start on the Starlight Path for a modest contribution of $Cabal_tithe_string credits."
+The $personRank in the bright suit folds $hisOrHer arms. "Or, we could do this the hard way. It's your call."
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+"You are quite wealthy, $playerName. An individual of your stature can surely start on the Starlight Path for a contribution of $Cabal_tithe_string credits."
+The Cabalero points at you through the comms-link. "Just remember, you reap what you sow."
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+"$playerName, your coffers are large enough for an introduction to the Starlight Path. With a contribution of $Cabal_tithe_string credits, you can come one step closer to enlightenment."
+The comm abruptly cuts to stark black. "Otherwise, I think you're going to have a bad time."</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"We can see that you are an individual of wealth, $playerName. Perhaps you can be convinced to continue on the Starlight Path for a modest contribution of $Cabal_tithe_string credits."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"You're ferrying around quite a lot of cargo, $playerName. Maybe you can be convinced to start on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name."
+"If not, then we've got a problem. Your choice." The $personRank gives you an exaggerated wink.
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+"Oh boy, $playerName, you've got an awful lot of cargo. I think you can start on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name to the cause."
+"Not that you've got much of a choice in the matter," the Cabal $personRank says while shrugging.
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+"That's some valuable cargo in your holds, $playerName. Why not start on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name?"
+Golden teeth poke out as the $personRank smiles cockily. "It will be a lot easier on the both of us if you do."</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"You've got some valuable cargo, $playerName. Maybe you can be convinced to continue on the Starlight Path by donating $Cabal_cargo_amount_string $Cabal_cargo_name."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"That is a shiny gun, $playerName. I hope you can be convinced to start on the Starlight Path by donating your $Cabal_weapon_name to the cause."
+The Cabal $personRank in a brightly-colored leotard paces impatiently. "If not, then I'll take it by force. It's up to you, really."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"Those are some shiny guns, $playerName. I hope you can be convinced to start on the Starlight Path by donating your $Cabal_weapon_amount_string $Cabal_weapon_names to the cause."
+Behind a mahogany desk, the Cabal $personRank appears to be completely nude except for a large gold chain around the neck. "If not, then I'll take them by force. It's up to you, really."</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"Now that is a fine weapon, $playerName. Hopefully, you can be convinced to continue on the Starlight Path by donating that $Cabal_weapon_name to a greater cause."</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"Now those are some fine weapons, $playerName. Hopefully, you can be convinced to continue on the Starlight Path by donating $Cabal_weapon_amount_string $Cabal_weapon_names to a greater cause."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"Wowie, $playerName! What a rare LPC! I hope you will start on the Starlight Path by donating your $Cabal_fighter_name to a greater cause."
+The Cabal $personRank chuckles to themself, reclining on a posh sofa installed in their bridge. "Hurry up, won't you? I'm growing impatient."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"Amazing, $playerName! What a wonderful LPC collection! You had better start on the Starlight Path by donating your $Cabal_fighter_amount_string $Cabal_fighter_names to a greater cause."
+The Cabal $personRank reclines on a posh sofa installed in their bridge, inspecting a handful of credit chits. "Hurry up, darling! I grow impatient."</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"I see you are in possession of a rare LPC, $playerName. I am sure you will continue on the Starlight Path by donating that $Cabal_fighter_name to a greater cause."</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"My scans show that you have quite the collection of LPCs, $playerName. I am certain you will continue on the Starlight Path by donating $Cabal_fighter_amount_string $Cabal_fighter_names to a greater cause."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"You have an excellent taste in ships, $playerName. I think you can start on the Starlight Path by graciously donating the $Cabal_ship_name to the cause."
+The Cabalero looks at you through a pair of blinders. "It would be a shame if it got damaged. But that's your choice, not mine."
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+"$playerName, that ship of yours is positively delicious! I think you can start on the Starlight Path by giving the $Cabal_ship_name to a greater cause."
+The $personRank spins around on an office chair. "Or we could just take it, you know. It's up to you."
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+"Phew, what a beauty that ship is! $playerName, you have a great opportunity to start on the Starlight Path - by sharing the $Cabal_ship_name with the Cabal."
+"Sharing is caring, $playerName. If you're not in the caring mood, you will just have to be punished." The Cabal $personRank waggles a ring-adorned finger at you, disapprovingly.</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"That is an excellent fleet in your employ, $playerName. I hope you will continue on the Starlight Path by graciously donating the $Cabal_ship_name to a greater cause."</t>
+  </si>
+  <si>
+    <t>Loud and obnoxious music immediately starts to play through the comms-line.
+"What a loser! Your coffers are so empty that it's not even worth asking you for a contribution. Prepare to burn, lowlife scum!" The Cabal $personRank regards you as though you are a pile of excrement.</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"Attention, captain: your assets are worth a paltry $Cabal_netWorthString! Poverty is a sin, as you should be well aware. You must obtain more wealth before you are worthy to start on the Starlight Path."
+OR
+Loud and obnoxious music immediately starts to play through the comms-line.
+A laughing $personFaction $personRank appears on screen long enough to laugh at you piteously. "I'll let you go, little pauper! Wouldn't want to cut into profits by wasting time swatting every little fly in my path, would I?" You are given a mocking wave good-bye before the comms-line - and the music - cuts out.</t>
+  </si>
+  <si>
+    <t>A triangular symbol appears on the comms-line amidst a flood of loud and obnoxious music.
+"You're quite... unwealthy, aren't you? Your assets are only worth $Cabal_netWorthString! You should amass some more wealth, $playerName. As you know, it's a sin to be poor."</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal score:100
+!$uwIsPalace
+RepIsAtWorst $faction.id INHOSPITABLE
+!$Cabal_extortionPaid
+!$Cabal_extortionAskedFor
+!$ignorePlayerCommRequests</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal score:100
+!$uwIsPalace
+RepIsAtBest $faction.id HOSTILE
+!$Cabal_extortionPaid
+!$Cabal_extortionAskedFor
+$relativeStrength &gt;= 0
+!$ignorePlayerCommRequests</t>
+  </si>
+  <si>
+    <t>greetingCabalHostilePalace</t>
+  </si>
+  <si>
+    <t>$entity.ignorePlayerCommRequests = true 1
+$menuState = fleetConvMain 0
+AddText "We are beyond your comprehension. The value of your fleet is a paltry $Cabal_netWorthString. The stars belong only to the opulent."
+FireAll PopulateOptions</t>
+  </si>
+  <si>
+    <t>$entity.isHostile
+$entity.uwIsPalace score:100
+CabalNormalTalk</t>
   </si>
 </sst>
 </file>
@@ -2964,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,10 +3066,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -3033,10 +3086,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -3053,10 +3106,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -3071,10 +3124,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -3092,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -3108,90 +3161,88 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>577</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>579</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -3200,775 +3251,770 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>491</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15"/>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>262</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16"/>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>576</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18"/>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="1" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="1" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="1" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>269</v>
+        <v>539</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35"/>
       <c r="E35"/>
       <c r="F35"/>
     </row>
     <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D38" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D40" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41"/>
+        <v>541</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>24</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43"/>
+    <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
     <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>94</v>
       </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E50"/>
+        <v>543</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>24</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E51"/>
       <c r="F51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52"/>
+    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
+        <v>570</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>120</v>
+        <v>573</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>24</v>
@@ -3976,1930 +4022,1950 @@
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>509</v>
+        <v>557</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>123</v>
+        <v>574</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>259</v>
-      </c>
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64"/>
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="E65"/>
-      <c r="F65" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F65"/>
     </row>
     <row r="66" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>536</v>
+        <v>115</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67"/>
+    <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="E67"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>535</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71"/>
+    <row r="70" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>505</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>532</v>
+        <v>129</v>
       </c>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>147</v>
+        <v>502</v>
       </c>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F77"/>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80"/>
-      <c r="E80"/>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>160</v>
-      </c>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C81"/>
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C82"/>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>164</v>
-      </c>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83"/>
       <c r="E83"/>
-      <c r="F83" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E85"/>
       <c r="F85" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C86"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E86"/>
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="F86" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87"/>
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>531</v>
+        <v>243</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
     </row>
     <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C99" t="s">
-        <v>196</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="C98" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C99"/>
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F104" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F105" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" t="s">
-        <v>223</v>
+        <v>192</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E107" t="s">
-        <v>227</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C107" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" t="s">
-        <v>230</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" t="s">
-        <v>234</v>
+        <v>217</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
-      </c>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
+      </c>
+      <c r="E111" t="s">
+        <v>225</v>
       </c>
       <c r="F111"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C112"/>
-      <c r="E112"/>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F112"/>
     </row>
-    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>243</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C114" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="E114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    </row>
+    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    </row>
+    <row r="124" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>282</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>293</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>292</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="B124" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>274</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>275</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>298</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>299</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>300</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>358</v>
+        <v>321</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>296</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>315</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>300</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>307</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>308</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>309</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>314</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>315</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="D140" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>328</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>329</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>331</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>324</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>325</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>326</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>331</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C143" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>332</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B144" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>333</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>345</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B145" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>348</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>349</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>350</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>351</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>495</v>
+      <c r="F145" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>334</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>350</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>351</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>354</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>361</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>363</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>368</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>370</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>365</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="F157" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>373</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>367</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>368</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>375</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>369</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>371</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>378</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>380</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B159" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>383</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>385</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>387</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>390</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>392</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>393</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="D159" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>377</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>395</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C161" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>380</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>404</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>391</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>410</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>401</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>419</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="F175" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>415</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>434</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C179" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>421</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>497</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="C182" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>480</v>
+      </c>
+      <c r="B184" t="s">
         <v>35</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>499</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="C184" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>482</v>
+      </c>
+      <c r="B185" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D184" s="1" t="s">
+      <c r="C185" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F184" s="1" t="s">
+      <c r="E185" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Underworld/data/campaign/rules.xlsx
+++ b/Underworld/data/campaign/rules.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="781">
   <si>
     <t>id</t>
   </si>
@@ -246,10 +246,6 @@
   </si>
   <si>
     <t>CabalQuestionCargoFriendly</t>
-  </si>
-  <si>
-    <t>$option == questionCabalCargo
-RepIsAtWorst $faction.id INHOSPITABLE</t>
   </si>
   <si>
     <t>CabalCargoPay</t>
@@ -434,9 +430,6 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>You are accepted as a member of the Starlight Cabal, for all the good it does you.</t>
-  </si>
-  <si>
     <t>relLevelFavorableCabal</t>
   </si>
   <si>
@@ -444,9 +437,6 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>The Starlight Cabal considers you to be an upstanding member of their society.</t>
-  </si>
-  <si>
     <t>relLevelWelcomingCabal</t>
   </si>
   <si>
@@ -454,9 +444,6 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>Somehow, you have managed to gain the trust of the Starlight Cabal.</t>
-  </si>
-  <si>
     <t>relLevelFriendlyCabal</t>
   </si>
   <si>
@@ -464,9 +451,6 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>The Starlight Cabal sees you as a peer and friend.</t>
-  </si>
-  <si>
     <t>relLevelCooperativeCabal</t>
   </si>
   <si>
@@ -481,9 +465,6 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>You have started on the Starlight Path, or so the Cabal claims.</t>
-  </si>
-  <si>
     <t>relLevelInhospitableCabal</t>
   </si>
   <si>
@@ -491,9 +472,6 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>The Starlight Cabal sees you as something more than a worthless peasant, meaning you are effectively free from their ire. For now.</t>
-  </si>
-  <si>
     <t>relLevelHostileCabal</t>
   </si>
   <si>
@@ -501,17 +479,11 @@
 $faction.id == cabal</t>
   </si>
   <si>
-    <t>The Starlight Cabal thinks nothing of you. In other words, they'll blow you up for fun, given the chance.</t>
-  </si>
-  <si>
     <t>relLevelVengefulCabal</t>
   </si>
   <si>
     <t>$faction.rel == VENGEFUL
 $faction.id == cabal</t>
-  </si>
-  <si>
-    <t>You have made yourself into an enemy of the Starlight Cabal. They are more than willing to leverage their considerable firepower against you.</t>
   </si>
   <si>
     <t>flavorTextMarketUWArigato</t>
@@ -876,10 +848,6 @@
 EndConversation</t>
   </si>
   <si>
-    <t>"..."
-The $personRank quickly cuts the connection before you can change your mind.</t>
-  </si>
-  <si>
     <t>uwGreetingTradeFleetAlreadyExtorted</t>
   </si>
   <si>
@@ -2226,9 +2194,6 @@
 $talked = true 7
 MakeOtherFleetPreventDisengage tOff true
 MakeOtherFleetAggressive tOff true</t>
-  </si>
-  <si>
-    <t>Against all odds, the Starlight Cabal sees you as an authority figure. Your words hold great weight within the shadowsphere.</t>
   </si>
   <si>
     <t>CabalAvoidExtortion</t>
@@ -2457,13 +2422,6 @@
 CabalTitheCalc</t>
   </si>
   <si>
-    <t>$entity.Cabal_extortionMethod == tithe score:100
-$faction.id == cabal
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalTitheCalc</t>
-  </si>
-  <si>
     <t>$entity.Cabal_extortionMethod == cargo score:100
 $faction.id == cabal
 RepIsAtBest $faction.id HOSTILE
@@ -2471,13 +2429,6 @@
 CabalCargoCalc</t>
   </si>
   <si>
-    <t>$entity.Cabal_extortionMethod == cargo score:100
-$faction.id == cabal
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalCargoCalc</t>
-  </si>
-  <si>
     <t>$entity.Cabal_extortionMethod == weapon score:100
 $faction.id == cabal
 RepIsAtBest $faction.id HOSTILE
@@ -2485,13 +2436,6 @@
 CabalWeaponCalc</t>
   </si>
   <si>
-    <t>$entity.Cabal_extortionMethod == weapon score:100
-$faction.id == cabal
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalWeaponCalc</t>
-  </si>
-  <si>
     <t>$entity.Cabal_extortionMethod == fighter score:100
 $faction.id == cabal
 RepIsAtBest $faction.id HOSTILE
@@ -2499,13 +2443,6 @@
 CabalFighterCalc</t>
   </si>
   <si>
-    <t>$entity.Cabal_extortionMethod == fighter score:100
-$faction.id == cabal
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalFighterCalc</t>
-  </si>
-  <si>
     <t>$entity.Cabal_extortionMethod == ship score:100
 $faction.id == cabal
 RepIsAtBest $faction.id HOSTILE
@@ -2513,13 +2450,6 @@
 CabalShipCalc</t>
   </si>
   <si>
-    <t>$entity.Cabal_extortionMethod == ship score:100
-$faction.id == cabal
-RepIsAtWorst $faction.id INHOSPITABLE
-!$entity.Cabal_extortionPaid
-CabalShipCalc</t>
-  </si>
-  <si>
     <t>$entity.Cabal_extortionMethod == none score:100
 $faction.id == cabal
 RepIsAtBest $faction.id VENGEFUL score:100
@@ -2529,12 +2459,6 @@
     <t>$entity.Cabal_extortionMethod == none score:100
 $faction.id == cabal
 RepIsAtBest $faction.id HOSTILE
-!$entity.Cabal_extortionPaid</t>
-  </si>
-  <si>
-    <t>$entity.Cabal_extortionMethod == none score:100
-$faction.id == cabal
-RepIsAtWorst $faction.id INHOSPITABLE
 !$entity.Cabal_extortionPaid</t>
   </si>
   <si>
@@ -2642,14 +2566,6 @@
   <si>
     <t>$faction.id == cabal score:100
 !$uwIsPalace
-RepIsAtWorst $faction.id INHOSPITABLE
-!$Cabal_extortionPaid
-!$Cabal_extortionAskedFor
-!$ignorePlayerCommRequests</t>
-  </si>
-  <si>
-    <t>$faction.id == cabal score:100
-!$uwIsPalace
 RepIsAtBest $faction.id HOSTILE
 !$Cabal_extortionPaid
 !$Cabal_extortionAskedFor
@@ -2669,6 +2585,835 @@
     <t>$entity.isHostile
 $entity.uwIsPalace score:100
 CabalNormalTalk</t>
+  </si>
+  <si>
+    <t>"..."
+The $personRank quickly cuts the connection before you can change your mind.</t>
+  </si>
+  <si>
+    <t>As with countless others, you are simply prey to the Starlight Cabal. Your wealth and hardware are free for the taking, but a Cabalero will not take your life if you comply with their demands.</t>
+  </si>
+  <si>
+    <t>You have proven to be a willing enemy of the Starlight Cabal. To a Cabalero, your life and liberty are forfeit; compliance will not save you.</t>
+  </si>
+  <si>
+    <t>You have entered into the Starlight Path, or so they claim. Although relations could quickly sour if you make a wrong move, you are now permitted to do business with the Starlight Cabal.</t>
+  </si>
+  <si>
+    <t>You have taken the first few steps along the Starlight Path. You are not a member of the Starlight Cabal, but you are treated with less disrespect than most are.</t>
+  </si>
+  <si>
+    <t>Your contributions to the Starlight Cabal have earned, though not actual membership, an associate position within the organization. The bulk of the Starlight Path still remains ahead of you.</t>
+  </si>
+  <si>
+    <t>The Starlight Cabal now sees you as an investment. You are treated with favor over other associates of the Cabal. Some Cabaleros offer you intriguing and exclusive deals.</t>
+  </si>
+  <si>
+    <t>You have walked further along the Starlight Path than most - a result of dedication and deep pockets. You have met important Cabaleros and have a limited level of insight into the inner workings of the organization. Full membership may be on the horizon.</t>
+  </si>
+  <si>
+    <t>Now nearly at the terminus of the Starlight Path, you have earned probationary membership within the Starlight Cabal. Entrance fees are waived for you, and most Cabaleros will know not to overtly ask you for further contributions.</t>
+  </si>
+  <si>
+    <t>You have become a member of the Starlight Cabal. You walk the shadowsphere with the full authority of a Cabalero. Now that you have completed the Starlight Path, no longer shall you encounter any fees, restrictions, or demands from fellow Cabaleros.</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == tithe score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$entity.Cabal_extortionPaid
+CabalTitheCalc</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal score:100
+!$uwIsPalace
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$Cabal_extortionPaid
+!$Cabal_extortionAskedFor
+!$ignorePlayerCommRequests</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == cargo score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$entity.Cabal_extortionPaid
+CabalCargoCalc</t>
+  </si>
+  <si>
+    <t>$option == questionCabalCargo
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == weapon score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$entity.Cabal_extortionPaid
+CabalWeaponCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == fighter score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$entity.Cabal_extortionPaid
+CabalFighterCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == ship score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$entity.Cabal_extortionPaid
+CabalShipCalc</t>
+  </si>
+  <si>
+    <t>$entity.Cabal_extortionMethod == none score:100
+$faction.id == cabal
+RepIsAtWorst $faction.id INHOSPITABLE
+RepIsAtBest $faction.id FRIENDLY
+!$entity.Cabal_extortionPaid</t>
+  </si>
+  <si>
+    <t>CabalEncounterPalace</t>
+  </si>
+  <si>
+    <t>AddText "You're being hailed by the $faction $otherShipOrFleet." $faction.baseColor
+$hailing = true 0</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalace</t>
+  </si>
+  <si>
+    <t>cabalPalaceListening:"Uh, sure, yeah."
+cabalPalaceMusic:"Your music is too damn loud. I could hear it from light-years away!"
+cutCommLink:Cut the comm link</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceListening</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceMusic</t>
+  </si>
+  <si>
+    <t>cabalPalaceWhat:"Coming to what, exactly?"
+cabalPalaceYes:"You know it." (accept)
+cabalPalaceNo:"I'll pass." (decline)</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceListening</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceMusic</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceWhat</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceWhat</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceDefault</t>
+  </si>
+  <si>
+    <t>cabalPalaceYes:"Sounds like fun." (accept)
+cabalPalaceNo:"I'll pass." (decline)</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceNo</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceNo</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceYes</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceYes</t>
+  </si>
+  <si>
+    <t>$entity.ignorePlayerCommRequests = true 7</t>
+  </si>
+  <si>
+    <t>"Lame." The Cabalero immediately loses interest, walking away from his console without even bothing to hit the comm-link cutoff.</t>
+  </si>
+  <si>
+    <t>#Need special contact greet text for Zeb, maybe pattern after Arroyo?</t>
+  </si>
+  <si>
+    <t>#One night stand? Zeb is pansex</t>
+  </si>
+  <si>
+    <t>Overwhelmingly loud music blasts through the comm terminal, immediately maxing the speakers. A triangular symbol fills the screen, but no one comes to answer.
+The wait seems interminable. The bridge crew is glancing at you, clearly hoping for you to make the music stop.</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceYesNoFee</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceYes
+RepIsAtWorst cabal COOPERATIVE</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal
+$uwIsPalace score:1000
+$stillAlive
+!$global.uwCompletedStarlightGala
+!$ignorePlayerCommRequests
+!$global.uwKilledPalace</t>
+  </si>
+  <si>
+    <t>#UW_ContactZeb, $global.uwCompletedStarlightGala = true</t>
+  </si>
+  <si>
+    <t>UW_AddGalaIntel</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal
+$entity.uwIsPalace score:1000
+$entity.stillAlive</t>
+  </si>
+  <si>
+    <t>#Zeb is coldly sober about Kanta, warns the player never to underestimate the pirate queen - a vicious monster, yes, but also a calculating warlord who has kept her wit sharp despite the centuries. Few can balance delegation and personal authority like Kanta, and the immensity of charisma she must possess to command such hordes of lawless pirates...</t>
+  </si>
+  <si>
+    <t>cabalPalaceYes:"I'm here for the Starlight Gala."
+cabalPalaceListening:"Uh, sure, yeah."
+cabalPalaceMusic:"Your music is too damn loud. I could hear it from light-years away!"
+cutCommLink:Cut the comm link</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal
+$entity.uwIsPalace score:1000
+$entity.stillAlive
+$id == uw_zeb
+!$global.uwCompletedStarlightGala
+!$entity.ignorePlayerCommRequests
+!$global.uwKilledPalace
+UW_HasGalaIntel score:1000
+$global.uwKnowStarlightGalaFee score:1000</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceKnowFee</t>
+  </si>
+  <si>
+    <t>cabalPalaceListening:"Uh, sure, yeah."
+cabalPalaceMusic:"Your music is too damn loud. I could hear it from the other side of the system!"
+cutCommLink:Cut the comm link</t>
+  </si>
+  <si>
+    <t>cabalPalaceYes:"I'm here for the Starlight Gala."
+cabalPalaceListening:"Uh, sure, yeah."
+cabalPalaceMusic:"Your music is too damn loud. I could hear it from the other side of the system!"
+cutCommLink:Cut the comm link</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalace2</t>
+  </si>
+  <si>
+    <t>UW_IsInHyperspace</t>
+  </si>
+  <si>
+    <t>UW_HasGalaIntel score:1000
+UW_IsInHyperspace</t>
+  </si>
+  <si>
+    <t>UW_HasGalaIntel score:1000</t>
+  </si>
+  <si>
+    <t>UW_HasGalaIntel</t>
+  </si>
+  <si>
+    <t>This funky scripting ensures that either an update is pushed or a new intel is created, but not both</t>
+  </si>
+  <si>
+    <t>$global.uwKnowStarlightGalaNoFee = true
+UW_UpdateGalaIntel
+UW_AddGalaIntel</t>
+  </si>
+  <si>
+    <t>#Slightly different text during the event depending on whether you're in hyperspace</t>
+  </si>
+  <si>
+    <t>#TBD</t>
+  </si>
+  <si>
+    <t>#Gamify it, keep the player on their toes</t>
+  </si>
+  <si>
+    <t>#If you accuse the Cabal of being immoral, Zeb asks you what heinous shit YOU have done (or mocks you for even daring to judge if you've committed an atrocity)</t>
+  </si>
+  <si>
+    <t>Overwhelmingly loud music blasts through the comm terminal, immediately maxing the speakers and rendering inaudible the fabulously well-dressed individual on the other side of the screen. He's talking, but you can't hear him. He doesn't seem to notice.
+His mouth keeps flapping without halt as a nearby ensign, flustered, hurriedly turns the volume down and applies a speech isolation filter.
+"-a real party in here. Hey, are you listening?"</t>
+  </si>
+  <si>
+    <t>"Right on!" The Cabalero grins, flashing a winning smile while bobbing his head to the music, fortunately now at a tolerable level. Some priceless gemstone glints from his ear, reflecting a spectrum of lights flashing around him.
+"So, are you coming or what, little $playerBrotherOrSister?"</t>
+  </si>
+  <si>
+    <t>"That's our hyperwave amp in action, baby! Treaty violations have never sounded so good." The Cabalero closes his eyes and starts bobbing his head to the music, fortunately now at a tolerable level. Some priceless gemstone glints from his ear, reflecting a spectrum of lights flashing around him.
+"So, are you coming or what, little $playerBrotherOrSister?"</t>
+  </si>
+  <si>
+    <t>The Cabalero reels his head back, mouth falling agape. He looks to the side, then gesticulates at you, conveying utter bafflement to someone offscreen.
+"This bum! Seriously, you don't know about THE party of the Persean Arm?" The Cabalero palms his face. "You're invited to the Starlight Gala! Let's tear up the stars!"</t>
+  </si>
+  <si>
+    <t>"Groovy! It's a date, little $playerBrotherOrSister. After you pay the entrance fee, take a shuttle up to my Palace and tell them you're here for the Starlight Gala. You're going to have the night... Of. Your. LIFE!"
+The Cabalero sweeps his index finger upward, striking a dramatic pose. He seems to sparkle. It must be a trick of the camera.</t>
+  </si>
+  <si>
+    <t>"Groovy! It's a date, little $playerBrotherOrSister. Normally there'd be an entrance fee, but I can see that you're a fellow $playerBrotherOrSister of the shadowsphere. Take a shuttle up to my Palace and tell them you're here for the Starlight Gala. You're going to have the night... Of. Your. LIFE!"
+The Cabalero sweeps his index finger upward, striking a dramatic pose. He seems to sparkle. It must be a trick of the camera.</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal
+$entity.uwIsPalace score:1000
+$entity.stillAlive
+$id == uw_zeb
+!$global.uwCompletedStarlightGala
+!$entity.ignorePlayerCommRequests
+!$global.uwKilledPalace
+!$entity.uwGaveIntro</t>
+  </si>
+  <si>
+    <t>$faction.id == cabal
+$entity.uwIsPalace score:1000
+$entity.stillAlive
+$id == uw_zeb
+!$global.uwCompletedStarlightGala
+!$entity.ignorePlayerCommRequests
+!$global.uwKilledPalace
+$entity.uwGaveIntro</t>
+  </si>
+  <si>
+    <t>FireBest CabalOpenCommPalace2</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceOptions</t>
+  </si>
+  <si>
+    <t>CabalCommPalace2Options</t>
+  </si>
+  <si>
+    <t>CabalCommPalace2OptionsHasIntel</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceOptionsHyper</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceOptionsHasIntel</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceOptionsHasIntelHyper</t>
+  </si>
+  <si>
+    <t>Overwhelmingly loud music blasts through the comm terminal, briefly maxing the speakers before the speech isolation filter kicks in.
+The Cabalero on the other side of the screen waves at you while flashing a winning smile while bobbing his head to the music. Some priceless gemstone glints from his ear, reflecting a spectrum of lights flashing around him.
+"You're back! Yay! Does that mean you're coming, little $playerBrotherOrSister?"</t>
+  </si>
+  <si>
+    <t>cabalPalaceYes:"Yes, I'm here for the Starlight Gala."
+cutCommLink:Cut the comm link</t>
+  </si>
+  <si>
+    <t>cabalPalaceScam:"Oh, so this is a scam."
+cabalPalaceNoObject:"Money is no object."
+cabalPalaceHowMuch:"How much is it?"</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceScam</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceScam</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceNoObject</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceHowMuch</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceNoObject</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceHowMuch</t>
+  </si>
+  <si>
+    <t>SetShortcut cutCommLink "ESCAPE"</t>
+  </si>
+  <si>
+    <t>$entity.ignorePlayerCommRequests = true 7
+SetShortcut cutCommLink "ESCAPE"</t>
+  </si>
+  <si>
+    <t>SetOptionColor cabalPalaceYes buttonShortcut
+SetShortcut cutCommLink "ESCAPE"</t>
+  </si>
+  <si>
+    <t>AdjustRepActivePerson SUSPICIOUS -2
+AdjustRep cabal HOSTILE -1
+$entity.ignorePlayerCommRequests = true 7
+SetShortcut cutCommLink "ESCAPE"</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceScam2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceScam2</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceNoObject2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceNoObject2</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceHowMuch2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceHowMuch2</t>
+  </si>
+  <si>
+    <t>SetTextHighlights $uwEntryFeeDGS
+DoCanAffordCheck $uwEntryFee cabalPalacePay
+$global.uwKnowStarlightGalaFee = true
+UW_UpdateGalaIntel</t>
+  </si>
+  <si>
+    <t>$option == cabalPalacePay</t>
+  </si>
+  <si>
+    <t>CabalCommPalacePay</t>
+  </si>
+  <si>
+    <t>RemoveCommodity credits $uwEntryFee
+AdjustRepActivePerson 20
+AdjustRep cabal 10</t>
+  </si>
+  <si>
+    <t>cabalPalacePay:Transfer $uwEntryFeeDGS credits
+cabalPalaceScam2:"Yep, totally a scam. That price is ridiculous."
+cabalPalaceNoPay:"On second thought, I'm not interested."</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceStoryPay</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceStoryPay</t>
+  </si>
+  <si>
+    <t>RemoveCommodity credits $uwStoryEntryFee
+AdjustRepActivePerson 20
+AdjustRep cabal 5</t>
+  </si>
+  <si>
+    <t>cabalPalaceStoryPay2:Continue</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceStoryPay2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceStoryPay2</t>
+  </si>
+  <si>
+    <t>cabalPalaceStoryPay3:Continue</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceStoryPay3</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceStoryPay3</t>
+  </si>
+  <si>
+    <t>SetStoryOption cabalPalaceStoryPay 1 uw_galaStoryPay general "Impressed Zeb Sparks enough to waive the Starlight Gala entry fee"
+DoCanAffordCheck $uwEntryFee cabalPalacePay
+DoCanAffordCheck $uwStoryEntryFee cabalPalaceStoryPay</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceNoPay</t>
+  </si>
+  <si>
+    <t>During your travels, you've learned how the Starlight Cabal operates. Their reputation for avarice is well-founded, but their rapacious appetite for raw credits is... greatly exaggerated. A Cabalero won't turn down money, of course, but they value something more indefinable: opulence.
+You pull out all the stops. A frozen Volturnian lobster that you've been saving for a special occasion. A prime vintage of wine from Gilead, retrieved from the "special" cabinet in your captain's cabin. Precious metals and gemstones taken as souvenirs from the bountiful ruins of forgotten worlds. Rare recordings of ancient art and music, preserving long-dead Old Earth culture like an insect in amber. You show off and voraciously sample the bounties you have collected from a career spent among the stars.</t>
+  </si>
+  <si>
+    <t>You don't stop there. The Cabal, like the pirates that they so outwardly disdain, respects power more than anything. So, you flex your own power. You remotely tap into the Palace's unsecured Hyperwave Amplifier and coax it into acting as an unrestricted Comm Relay. With your reach suddenly expanded, you make a deliberate series of bribes, purchases, and sales throughout the Sector, leveraging the numerous contacts you've made throughout your life.
+It takes a small fortune of credits to accomplish, but afterwards you direct the Cabalero to check the current market trends. As he scans across an unseen screen, you catch the glimpse of red warning lights reflected in his eyes.
+The price of recreational drugs has suddenly spiked across every Tri-Tachyon market in the Sector.</t>
+  </si>
+  <si>
+    <t>With a speech isolation filter already in place, the music that comes through the comms is at a pleasant volume.
+The Cabalero on the other side of the screen gives you a grin and a quick nod. The strobing lights all around him glint off of his jewelry.
+"You've returned, little $playerBrotherOrSister. Does that mean you're ready to party?"</t>
+  </si>
+  <si>
+    <t>RepIsAtWorst cabal COOPERATIVE</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceKnowFeeOptions</t>
+  </si>
+  <si>
+    <t>CabalOpenCommPalaceKnowFeeOptionsNoFee</t>
+  </si>
+  <si>
+    <t>cabalPalacePay:"More than ready." (transfer $uwEntryFeeDGS credits)
+cabalPalaceStoryPay:Avoid the entry fee by impressing the Cabalero ($uwStoryEntryFeeDGS credits)
+cutCommLink:Cut the comm link</t>
+  </si>
+  <si>
+    <t>cabalPalacePay:Transfer $uwEntryFeeDGS credits
+cabalPalaceStoryPay:Avoid the entry fee by impressing the Cabalero ($uwStoryEntryFeeDGS credits)
+cabalPalaceNoPay:"On second thought, I'm not interested."</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceNoPay
+UW_CanPayGala false</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceNoPayCantPay</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceNoPay
+!UW_CanPayGala false</t>
+  </si>
+  <si>
+    <t>cabalPalacePay:Transfer $uwEntryFeeDGS credits
+cabalPalaceNoObject2:"Very funny. What's the real fee?"
+cabalPalaceNoPay:"On second thought, I'm not interested."</t>
+  </si>
+  <si>
+    <t>The Cabalero smirks. "Are you sure about that, darling? The entry fee is $uwEntryFeeDGS credits." He lets that hang in the air for a moment. "It covers the extreme costs of running such an excellent, exclusive, exotic, exquisite, exuberant, exalted affair."
+Then he shrugs, pursing his luscious purple lips. "As you know, money grows on trees, and you will find this harvest to be most rewarding. A no-brainer, really."</t>
+  </si>
+  <si>
+    <t>"I assure you, little $playerBrotherOrSister: the fee is very real. $uwEntryFeeDGS credits buys your access to an event where everyone who's who will be rubbing elbows. Such discerning guests would hardly tolerate the company of common riff-raff."
+"Of course, you should have no problem paying such a paltry sum," the Cabalero drawls, giving you a pointed glance while he plays with his shiny amulet. "Right?"</t>
+  </si>
+  <si>
+    <t>"Scam?! You wound me!" The Cabalero covers his mouth in a gesture of mock outrage. "The $uwEntryFeeDGS credit fee covers the extreme costs of running such an excellent, exclusive, exotic, exquisite, exuberant, exalted affair."
+He gives you a serious look. "Money does grow on trees, after all, but it must first be plucked. You will find the experience to be most... rewarding."</t>
+  </si>
+  <si>
+    <t>"It's $uwEntryFeeDGS credits," the Cabalero says back-handedly, as if such a sum barely deserves mention. "Of course, the fee covers the extreme costs of running such an excellent, exclusive, exotic, exquisite, exuberant, exalted affair."
+He gives you a sultry wink. "Money grows on trees, after all, but it must first be plucked. You will find the experience to be most... rewarding."</t>
+  </si>
+  <si>
+    <t>cabalPalacePay:Transfer $uwEntryFeeDGS credits
+cabalPalaceHowMuch2:"That's absurdly high."
+cabalPalaceNoPay:"On second thought, I'm not interested."</t>
+  </si>
+  <si>
+    <t>"So will you be, if you attend the Gala," the Cabalero quips before chuckling. "If you roll with the Cabal, you will soon learn to overcome weak instincts like 'sticker shock', little $playerBrotherOrSister." He adopts a wistful expression. "Ah, to be so young and fresh as to feel fear when seeing a mere number."
+Then he refocuses on you. "Everyone who's who will be rubbing elbows at the Gala, darling. If you can't pay the fee, then you really don't belong; they'll eat you up like a shiver of sharks."</t>
+  </si>
+  <si>
+    <t>"Tariffs are a scam." The Cabalero dismissively tosses his fabulous mane of dual-tone hair. "This... is a transaction, little $playerBrotherOrSister."
+He spreads his hands in a conciliatory gesture. "Would you prefer to be stabbed in the back with hidden costs and contractual devilry? Everyone who's who will be rubbing elbows at the Gala. Trust me, you don't want to play that game; they've been playing it a lot longer than you have, darling."</t>
+  </si>
+  <si>
+    <t>#$entity.sawPlayerTransponderOn = true</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGala2:Take a shuttle to the $uwPalaceShipName</t>
+  </si>
+  <si>
+    <t>The Cabalero is silent for a moment, blinking rapidly as he confirms the credit transfer. He glances up at you, then back down at a console, then back at you. He slowly breaks into a wide, beaming smile.
+"Wow. You're a real high roller, baby!" He leans closer to the screen, causing his jewelry to jingle. "I'll be keeping my pretty little eye on you, my pretty little $playerBrotherOrSister," he purrs with a wink while he cuts off the comm-link.</t>
+  </si>
+  <si>
+    <t>The Cabalero is silent for a moment, blinking rapidly as he witnesses your market manipulation. He glances up at you, then back down at a console, then back at you. He slowly breaks into a wide, beaming smile.
+"Wow. You're a real high roller, baby!" The Cabalero leans closer to the screen, causing his jewelry to jingle. "Forget the fee. I'll let them know that I'm expecting you, my pretty little $playerBrotherOrSister," he purrs with a wink while he cuts off the comm-link.</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceYesNoFee2</t>
+  </si>
+  <si>
+    <t>cabalPalaceYesNoFee2:Continue</t>
+  </si>
+  <si>
+    <t>AdjustRepActivePerson 20</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceYesNoFee2</t>
+  </si>
+  <si>
+    <t>The Cabalero leans his side of the terminal, getting so close that his hair bumps against the screen. "I'll let them know that I'm expecting you, little $playerBrotherOrSister," he says with a wink while he cuts off the comm-link.</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGala</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGala</t>
+  </si>
+  <si>
+    <t>"Oh, I see. You don't have enough coin to knock together, do you," the Cabalero coos in an insultingly affectionate tone. "How adorable." He sighs, adding, "be sure to come back when you're worthy of my time, darling."
+The feed cuts off while he's giving you a little wave goodbye.</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGala:Prepare for the Starlight Gala</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaMakeASplash</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaMakeASplash</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearADress</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearADress</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearASuit</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearASuit</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearAUniform</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearAUniform</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaMakeASplash:Make a splash
+cabalPalaceGoToGalaWearADress:Wear a fancy dress
+cabalPalaceGoToGalaWearASuit:Wear a formal suit
+cabalPalaceGoToGalaWearAUniform:Wear your uniform</t>
+  </si>
+  <si>
+    <t>As your $shipOrFleet prepares for your partygoing excursion to the $uwPalaceShipName, you consider how you are going to present yourself at the Starlight Gala.</t>
+  </si>
+  <si>
+    <t>$player.ethosCocky+
+SetTextHighlights $uwEntryFeeDGS
+DoCanAffordCheck $uwEntryFee cabalPalacePay
+$global.uwKnowStarlightGalaFee = true
+UW_UpdateGalaIntel</t>
+  </si>
+  <si>
+    <t>You take the opportunity to get properly dressed, dusting off a sharp, black suit for the occasion. Sleek boots, ironed pants, and white gloves complete the appearance. It's a little constricting, especially around the collar, but it'll do.
+You tuck a sidearm into your jacket, just in case.
+The $uwPalaceShipName sends you the all-clear to approach with the shuttle and escorts.</t>
+  </si>
+  <si>
+    <t>You consider your reputation. When people see you, they have certain expectations. Captain, commander, trader, privateer, spacer, starfarer. Perhaps it's best to go as-is. After all, this is who you really are.
+You keep your sidearm at your hip, just in case.
+The $uwPalaceShipName sends you the all-clear to approach with the shuttle and escorts.</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGala2</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearADress2:Take a shuttle to the $uwPalaceShipName</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearASuit2:Take a shuttle to the $uwPalaceShipName</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearASuit2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearASuit2</t>
+  </si>
+  <si>
+    <t>$option = cabalPalaceGoToGala2 0
+FireBest DialogOptionSelected</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearADress2</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearADress2</t>
+  </si>
+  <si>
+    <t>En route, you catch a female junior officer staring at your butt.</t>
+  </si>
+  <si>
+    <t>En route, you notice a male junior officer blushing and looking away from you.</t>
+  </si>
+  <si>
+    <t>You take the opportunity to wear your best, digging out a long-buried black dress with a low-cut back. Shiny high-heels, thin stockings, and a necklace of Volturnian pearls complete the appearance. It's a little revealing, but it'll do.
+You tuck a sidearm into your skirt, just in case.
+The $uwPalaceShipName sends you the all-clear to approach with the shuttle and escorts.</t>
+  </si>
+  <si>
+    <t>$player.ethosOrder++
+$uwGalaOutfitUniform = true 0</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearNothing</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearNothing</t>
+  </si>
+  <si>
+    <t>You decide to go big or go home: an outfit guaranteed to stand out, even amongst a crowd of eccentric Cabaleros.
+After swallowing your nervousness and burying your inhibitions, a number of possibilities come to mind...</t>
+  </si>
+  <si>
+    <t>$uwGalaOutfitSplash = true 0</t>
+  </si>
+  <si>
+    <t>ShowDefaultVisual
+EndConversation
+SetStoryOption cabalPalaceGoToGalaMakeASplash 1 uw_galaStorySplash general "Wore an outrageous outfit when attending the Starlight Gala"</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearNothing2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearNothing2</t>
+  </si>
+  <si>
+    <t>"It's- it's- um," the officer overseeing the shuttle bay stammers, "not proper protocol to, um-," but you wave him off, boarding the shuttle with an air of unwavering authority. Even the marines avert their eyes.</t>
+  </si>
+  <si>
+    <t>$uwGalaOutfitNothing = true 0</t>
+  </si>
+  <si>
+    <t>$uwGalaOutfitFormal = true 0
+$uwGalaOutfitDress = true 0</t>
+  </si>
+  <si>
+    <t>$uwGalaOutfitFormal = true 0
+$uwGalaOutfitSuit = true 0</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearNothing3</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearNothing3</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearNothing3:Take a shuttle to the $uwPalaceShipName</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearNothing2:Continue</t>
+  </si>
+  <si>
+    <t>Retreating to your quarters, you strip down to your skivvies. Then, after a moment of hesitation, you take those off too.
+You then dig into the cosmetics, liberally applying them over your face, transforming your visage into a done-up mask of striking beauty. Having outdone yourself, you proceed with the body paint, carefully tracing your natural contours while you craft a suit of pigments. The process is laborious, at times requiring correction, but determination fuels you.</t>
+  </si>
+  <si>
+    <t>Finally, you stand in front of the mirror to inspect your handiwork. You look like an otherwordly fey being, something both removed from and elevated over humanity. You can barely recognize yourself.
+From a distance, one might not even realize you're wearing nothing.
+It's time to make an impression.</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearBling</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearBling2</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearBling3</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearBling</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearBling2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearBling3</t>
+  </si>
+  <si>
+    <t>$uwGalaOutfitBling = true 0</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearBling2:Continue</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearBling3:Take a shuttle to the $uwPalaceShipName</t>
+  </si>
+  <si>
+    <t>The Starlight Cabal can't get enough of their shiny baubles, so you decide to play to the crowd. You order your ship's forge crew to hammer out rings, bracelets, necklaces - anything they can produce in short order. Meanwhile, you scrounge up every last piece of jewelry in your collection and search around for the perfect outfit to accompany them.
+You wind up wearing some of the gaudiest robes you've ever seen - an old shame of one of your officers, who is very eager to be rid of them - and decking yourself out with enough bling to confuse a guidance algorithm.</t>
+  </si>
+  <si>
+    <t>You get raised eyebrows from your officers as you stride to the shuttle bay. One of the marines keeps glancing at your feet, clearly hoping to surreptitiously collect any jewelry you accidentally drop on the ground.</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearNothing:Use your body as a canvas
+cabalPalaceGoToGalaWearBling:Cover yourself in jewelry
+cabalPalaceGoToGalaWearFashion:Invent a new style of fashion</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearFashion</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearFashion2</t>
+  </si>
+  <si>
+    <t>CabalCommPalaceGoToGalaWearFashion3</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearFashion</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearFashion2</t>
+  </si>
+  <si>
+    <t>$option == cabalPalaceGoToGalaWearFashion3</t>
+  </si>
+  <si>
+    <t>$uwGalaOutfitFashion = true 0</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearFashion2:Continue</t>
+  </si>
+  <si>
+    <t>cabalPalaceGoToGalaWearFashion3:Take a shuttle to the $uwPalaceShipName</t>
+  </si>
+  <si>
+    <t>You can't help but feel like a magpie as you inspect your reflection in the mirror. The mass of precious metal literally weighs you down, clinking and jingling with every movement you make. Gemstones strain your eyes from countless multi-faceted reflections. Your whole body sparkles like a cluster of flares.
+It's time to make an impression.</t>
+  </si>
+  <si>
+    <t>You decide to make a fashion statement. No existing style will do; you go straight to the drawing board, deliberately concocting the most ridiculous design you can think of. After a few rounds of revision, you strike gold: a peacock-inspired gown with a low-cut V-neck, massive white frills, and an enormous multicolored fan-shaped protrusion in the back that stretches above the head and far to each side.
+It's hideous. It's perfect.</t>
+  </si>
+  <si>
+    <t>It turns out that one of your crew was once a seamstress from Gilead. She grumbles the entire time as she crafts your monstrosity of an outfit, but the final product looks like it was made by a true professional. Rather than tell you her life's story, however, she just demands more hazard pay.
+After a thorough inspection in the mirror, you decide that this outfit is even worse than you had imagined. It will be a wonder if you can ever live this down.
+It's time to make an impression.</t>
+  </si>
+  <si>
+    <t>Heads turn and jaws drop as you make your way to the shuttle bay. En route to the $uwPalaceShipName, your escorts wear expressions of secondhand embarrassment.</t>
+  </si>
+  <si>
+    <t>$entity.uwGaveIntro = true
+UW_UpdateGalaFacts
+FireBest CabalOpenCommPalace</t>
+  </si>
+  <si>
+    <t>UW_UpdateGalaFacts
+FireBest CabalOpenCommPalace2</t>
+  </si>
+  <si>
+    <t>UW_UpdateGalaFacts
+FireBest CabalOpenCommPalaceKnowFee</t>
+  </si>
+  <si>
+    <t>#CabalCommPalaceGoToGala2</t>
+  </si>
+  <si>
+    <t>#CabalOpenCommPalace</t>
+  </si>
+  <si>
+    <t>#CabalOpenCommPalace2</t>
+  </si>
+  <si>
+    <t>#CabalOpenCommPalaceKnowFee</t>
   </si>
 </sst>
 </file>
@@ -2684,12 +3429,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2704,7 +3455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2713,6 +3464,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3017,20 +3776,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="1"/>
-    <col min="4" max="4" width="117" style="1" customWidth="1"/>
-    <col min="5" max="5" width="91.85546875" style="1"/>
-    <col min="6" max="6" width="45" style="1"/>
+    <col min="3" max="3" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="6"/>
     <col min="8" max="1025" width="8.5703125"/>
   </cols>
@@ -3066,10 +3825,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -3086,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -3106,15 +3865,14 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4"/>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3124,15 +3882,14 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5"/>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3145,10 +3902,8 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>477</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3161,23 +3916,21 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>478</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3191,7 +3944,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -3211,7 +3964,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -3231,7 +3984,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
@@ -3251,12 +4004,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3267,10 +4018,8 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>481</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3280,13 +4029,11 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3301,13 +4048,6 @@
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-      <c r="E16"/>
-      <c r="F16"/>
     </row>
     <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3317,15 +4057,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3333,19 +4071,13 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3353,19 +4085,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3373,16 +4105,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -3396,19 +4128,13 @@
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22"/>
+        <v>243</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3416,17 +4142,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3437,14 +4162,13 @@
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E25"/>
+        <v>497</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3455,14 +4179,13 @@
         <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E26"/>
+        <v>497</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3473,14 +4196,13 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E27"/>
-      <c r="F27" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3488,17 +4210,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3509,14 +4230,13 @@
         <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E29"/>
+        <v>527</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3527,14 +4247,13 @@
         <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E30"/>
+        <v>527</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3545,14 +4264,13 @@
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E31"/>
+        <v>527</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3563,11 +4281,10 @@
         <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E32"/>
+        <v>498</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -3578,463 +4295,428 @@
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>575</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E33"/>
+        <v>528</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34"/>
+        <v>242</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
     <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>73</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>75</v>
       </c>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42"/>
+        <v>241</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43"/>
+        <v>240</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
     <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>89</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
-      <c r="E48"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E51"/>
+        <v>239</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E52"/>
+        <v>238</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56"/>
+        <v>237</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-    </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
@@ -4042,19 +4724,19 @@
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>24</v>
@@ -4065,103 +4747,89 @@
     </row>
     <row r="63" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C64"/>
-      <c r="E64"/>
-      <c r="F64"/>
+        <v>487</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
+        <v>232</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
         <v>113</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66"/>
       <c r="F66" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E67"/>
+        <v>493</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
     <row r="69" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>24</v>
@@ -4170,1802 +4838,2689 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>117</v>
+    <row r="72" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>580</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>591</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>122</v>
+        <v>607</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>124</v>
+        <v>601</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>778</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>125</v>
+        <v>631</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>634</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>637</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>582</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>638</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>582</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>639</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>582</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>138</v>
+        <v>616</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>139</v>
+        <v>632</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>587</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>142</v>
+        <v>584</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>588</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>635</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="F82" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>636</v>
+      </c>
+      <c r="B83" t="s">
+        <v>614</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84"/>
+        <v>590</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>593</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E85"/>
+        <v>594</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>595</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86"/>
+        <v>596</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="F86" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>643</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>653</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>645</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E89"/>
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>655</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>163</v>
+        <v>656</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>646</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>22</v>
+        <v>648</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>167</v>
+        <v>690</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>657</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>22</v>
+        <v>658</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>170</v>
+        <v>692</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>171</v>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>780</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>172</v>
+        <v>610</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>22</v>
+        <v>776</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F93" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>679</v>
+      </c>
+      <c r="B94" t="s">
+        <v>611</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>680</v>
+      </c>
+      <c r="B95" t="s">
+        <v>611</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>661</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>664</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>668</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>671</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>602</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G100" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>698</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>674</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F94" s="1" t="s">
+    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>684</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>175</v>
-      </c>
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>177</v>
-      </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>238</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>182</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>185</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>186</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E101"/>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>188</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" t="s">
-        <v>189</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E102"/>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>704</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>707</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>203</v>
+        <v>14</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>732</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>207</v>
+        <v>14</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>737</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
-      </c>
-      <c r="C107" t="s">
-        <v>210</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>743</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" t="s">
-        <v>214</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>749</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" t="s">
-        <v>217</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>500</v>
+        <v>14</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>758</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>750</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
       </c>
-      <c r="C110" t="s">
-        <v>219</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" t="s">
-        <v>221</v>
+      <c r="C110" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="5" t="s">
+        <v>770</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>751</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
       </c>
-      <c r="C111" t="s">
-        <v>223</v>
+      <c r="C111" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E111" t="s">
-        <v>225</v>
-      </c>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>761</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
       </c>
-      <c r="C112" t="s">
-        <v>227</v>
+      <c r="C112" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C113"/>
-      <c r="E113"/>
-      <c r="F113"/>
+        <v>767</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>762</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>763</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>710</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>727</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>712</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>723</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>713</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D123" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D124" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D125" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D126" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D128" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>125</v>
+      </c>
+      <c r="B130" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131" t="s">
+        <v>117</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" t="s">
+        <v>117</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>127</v>
+      </c>
+      <c r="B135" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>260</v>
-      </c>
-      <c r="B116" s="3" t="s">
+    </row>
+    <row r="143" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>265</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>276</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>275</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>256</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>257</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>258</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>281</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>282</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>283</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>286</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>287</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>288</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>292</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>294</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>296</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>298</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>300</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>302</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>307</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>308</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>309</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>314</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>315</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>316</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>328</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>329</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>331</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>332</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>333</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>334</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>14</v>
+      <c r="B146" t="s">
+        <v>35</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>347</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>268</v>
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>35</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>348</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>268</v>
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>349</v>
+        <v>154</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>350</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>14</v>
+        <v>156</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>357</v>
+        <v>157</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>351</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>268</v>
+        <v>159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>430</v>
+        <v>22</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>352</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>268</v>
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>353</v>
+        <v>22</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>354</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>14</v>
+        <v>164</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>361</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>268</v>
+        <v>166</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>431</v>
+        <v>22</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>363</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>268</v>
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>365</v>
+        <v>22</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>366</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>14</v>
+        <v>170</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>367</v>
+        <v>171</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>368</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>268</v>
+        <v>228</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>433</v>
+        <v>22</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>370</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>373</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>375</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>268</v>
+        <v>176</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>376</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>268</v>
+        <v>179</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>377</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>383</v>
+        <v>182</v>
+      </c>
+      <c r="B161" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>378</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>384</v>
+        <v>188</v>
+      </c>
+      <c r="B162" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>379</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>463</v>
+        <v>193</v>
+      </c>
+      <c r="B163" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>380</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="B164" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>387</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>268</v>
+        <v>200</v>
+      </c>
+      <c r="B165" t="s">
+        <v>183</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>389</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="B166" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>391</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>14</v>
+        <v>207</v>
+      </c>
+      <c r="B167" t="s">
+        <v>183</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>393</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>268</v>
+        <v>209</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>456</v>
+        <v>210</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>395</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>268</v>
+        <v>213</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>397</v>
-      </c>
-      <c r="B170" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B170" t="s">
         <v>14</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>399</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>400</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>406</v>
+        <v>220</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>466</v>
+        <v>22</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>401</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>408</v>
+        <v>251</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>409</v>
+        <v>256</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>404</v>
+        <v>266</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>410</v>
+        <v>258</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>411</v>
+        <v>265</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>412</v>
+        <v>261</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>413</v>
+        <v>246</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>468</v>
+        <v>253</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>415</v>
+        <v>247</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>416</v>
+        <v>263</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>449</v>
+        <v>275</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>419</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>272</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>273</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>276</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>282</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>284</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>286</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>288</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>292</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>297</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>298</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>299</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>304</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>305</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>306</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>318</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>319</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>321</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>322</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>323</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>324</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>337</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>338</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>341</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>342</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>344</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="F211" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>353</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>356</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>480</v>
-      </c>
-      <c r="B184" t="s">
+    </row>
+    <row r="214" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>358</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>360</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>363</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>365</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>366</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>367</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>368</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>369</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>370</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>377</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>379</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>381</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>383</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>385</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>387</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>392</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>394</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>403</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>405</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>407</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>409</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>411</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>470</v>
+      </c>
+      <c r="B242" t="s">
         <v>35</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>482</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="C242" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>472</v>
+      </c>
+      <c r="B243" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="C243" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="E243" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>24</v>
       </c>
     </row>
